--- a/Libary/MTE_111_U.xlsx
+++ b/Libary/MTE_111_U.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\AI-Meter_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>перетворювача</t>
   </si>
@@ -154,13 +154,7 @@
     <t>075176</t>
   </si>
   <si>
-    <t>X/19-8A</t>
-  </si>
-  <si>
     <t>Нормуюче знач. вих. сигналу, mA</t>
-  </si>
-  <si>
-    <t>7А1H1</t>
   </si>
   <si>
     <t>Визначення основної приведенної похибки в режимі вимірювання напруги змінного струму</t>
@@ -195,9 +189,6 @@
   </si>
   <si>
     <t>Висновок:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> придатний  </t>
   </si>
   <si>
     <t>Підпис</t>
@@ -1028,13 +1019,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="4.140625" style="2" customWidth="1"/>
+    <col min="1" max="21" width="4.140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" style="2" customWidth="1"/>
     <col min="23" max="23" width="4" style="2" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1054,7 +1046,7 @@
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
       <c r="L1" s="26" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
@@ -1116,7 +1108,7 @@
       </c>
       <c r="M3" s="29"/>
       <c r="N3" s="30" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="O3" s="30"/>
       <c r="P3" s="31" t="s">
@@ -1494,7 +1486,7 @@
     </row>
     <row r="18" spans="1:22" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="72" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
@@ -1542,20 +1534,20 @@
     </row>
     <row r="20" spans="1:22" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="50"/>
       <c r="E20" s="24" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G20" s="51"/>
       <c r="H20" s="52" t="s">
@@ -1563,7 +1555,7 @@
       </c>
       <c r="I20" s="53"/>
       <c r="J20" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20" s="51"/>
       <c r="L20" s="51"/>
@@ -1572,7 +1564,7 @@
         <v>20</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
@@ -1585,10 +1577,10 @@
     </row>
     <row r="21" spans="1:22" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
@@ -1596,7 +1588,7 @@
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
       <c r="H21" s="46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
@@ -1604,7 +1596,7 @@
       <c r="L21" s="46"/>
       <c r="M21" s="46"/>
       <c r="N21" s="47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O21" s="48"/>
       <c r="P21" s="48"/>
@@ -1612,7 +1604,7 @@
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
       <c r="T21" s="47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U21" s="47"/>
       <c r="V21" s="47"/>
@@ -1620,37 +1612,37 @@
     <row r="22" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
       <c r="E22" s="75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
       <c r="H22" s="47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K22" s="48"/>
       <c r="L22" s="47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M22" s="48"/>
       <c r="N22" s="47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O22" s="48"/>
       <c r="P22" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="48"/>
       <c r="R22" s="47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S22" s="48"/>
       <c r="T22" s="47"/>
@@ -1931,19 +1923,19 @@
     <row r="62" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B63" s="31"/>
       <c r="C63" s="31"/>
       <c r="D63" s="31" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="82"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
       <c r="I63" s="83" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J63" s="31"/>
       <c r="K63" s="31"/>
@@ -1953,7 +1945,7 @@
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="83" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R63" s="31"/>
       <c r="S63" s="31"/>

--- a/Libary/MTE_111_U.xlsx
+++ b/Libary/MTE_111_U.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\AMSof_Develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
-    <sheet name="Вих2" sheetId="1" r:id="rId1"/>
-    <sheet name="Вих3" sheetId="4" r:id="rId2"/>
+    <sheet name="Протокол" sheetId="1" r:id="rId1"/>
+    <sheet name="Графік сигналу" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
